--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,47 +461,67 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>National ID / Iqama</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Emergency Phone</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Chronic Conditions</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Current Meds</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allergies</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Vaccinations</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Temp (C)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>BP Systolic</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BP Diastolic</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Random Glucose (mg/dL)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Medical Notes</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Record ID</t>
         </is>
       </c>
     </row>
@@ -532,6 +552,10 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +584,10 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -588,6 +616,10 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,43 +645,47 @@
           <t>١٢٣٤٥</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>السكر ، الضغط</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>الأدوات ال دوات</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>القمح</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>كل شي</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>38</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>190</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>23</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>57</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>dfghb</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -675,43 +711,47 @@
           <t>123456</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>sdfghj</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>asertgyhj</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>wertyui</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>wg43qg</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>36</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>130</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>456</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>1234</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>wertgyhujk</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,10 +764,8 @@
           <t>خديجة</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C7" t="n">
+        <v>34</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -739,49 +777,133 @@
           <t>1234567890</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>ertyhujk</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>dfghjk</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>sdertyujik</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>dfghjkl</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3456</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M7" t="n">
+        <v>37</v>
+      </c>
+      <c r="N7" t="n">
+        <v>456</v>
+      </c>
+      <c r="O7" t="n">
+        <v>345</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3456</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>wertyujik</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-01 10:52:14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>khadijah</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>saudi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88888</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>88888</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-01 12:19:22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>obay</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>saudi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0554420060</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>33333</t>
         </is>
       </c>
     </row>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,10 +870,8 @@
           <t>obay</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C9" t="n">
+        <v>22</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -886,10 +884,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0554420060</t>
-        </is>
+      <c r="G9" t="n">
+        <v>554420060</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -901,9 +897,51 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>33333</t>
+      <c r="R9" t="n">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-01 12:32:57</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>shahinaz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>saudi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66666</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>66666</t>
         </is>
       </c>
     </row>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,10 +912,8 @@
           <t>shahinaz</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="C10" t="n">
+        <v>24</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -939,9 +937,131 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>66666</t>
+      <c r="R10" t="n">
+        <v>66666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-01 12:39:10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>oaby</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>24</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>saudi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-01 12:39:32</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aseel</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>saudi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-01 12:39:49</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nagm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>saudi</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44444</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>44444</t>
         </is>
       </c>
     </row>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -822,20 +822,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-01 10:52:14</t>
+          <t>2025-10-02 14:20:58</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>khadijah</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>24</v>
+          <t>خديجة</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>saudi</t>
+          <t>السعودية</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,12 +846,32 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0554420060</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>سكري (Type II)، ضغط دم عالي، ربو</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ميتفلين</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>بنسيلين، أموكسيسيلين، الفول السوداني/المكسّرات</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>كوفيد</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1032,10 +1054,8 @@
           <t>nagm</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="C13" t="n">
+        <v>24</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1059,10 +1079,8 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>44444</t>
-        </is>
+      <c r="R13" t="n">
+        <v>44444</v>
       </c>
     </row>
   </sheetData>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,10 +830,8 @@
           <t>خديجة</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="C8" t="n">
+        <v>24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -846,10 +844,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0554420060</t>
-        </is>
+      <c r="G8" t="n">
+        <v>554420060</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1083,6 +1079,58 @@
         <v>44444</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-02 15:31:24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>خديجة علي باعثمان</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>السعودية</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55555</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0554420060</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>سكري (Type II)، السمنة</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>الفول السوداني/المكسّرات، الجلوتين (قمح)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -822,16 +822,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-02 14:20:58</t>
+          <t>2025-10-02 15:54:18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>خديجة</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>24</v>
+          <t>خديجة علي باعثمان</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -844,8 +846,10 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>554420060</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0554420060</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -853,21 +857,13 @@
           <t>سكري (Type II)، ضغط دم عالي، ربو</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ميتفلين</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>بنسيلين، أموكسيسيلين، الفول السوداني/المكسّرات</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>كوفيد</t>
-        </is>
-      </c>
+          <t>سيفالوسبورين، الأسبرين/NSAIDs، اللاكتوز</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1090,10 +1086,8 @@
           <t>خديجة علي باعثمان</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="C14" t="n">
+        <v>24</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1106,10 +1100,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0554420060</t>
-        </is>
+      <c r="G14" t="n">
+        <v>554420060</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -830,10 +830,8 @@
           <t>خديجة علي باعثمان</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="C8" t="n">
+        <v>24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -846,10 +844,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0554420060</t>
-        </is>
+      <c r="G8" t="n">
+        <v>554420060</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -876,20 +872,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-01 12:19:22</t>
+          <t>2025-10-02 16:40:26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>obay</t>
+          <t>رائد ابو الحجي</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>saudi</t>
+          <t>السعودية</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -899,13 +895,29 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>554420060</v>
+        <v>5581340323</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>سكري (Type I)، اضطراب الغدة الدرقية</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>بنادول 500G</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>سيفالوسبورين، الأسبرين/NSAIDs، الجلوتين (قمح)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>كوفيد</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -958,20 +970,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-01 12:39:10</t>
+          <t>2025-10-02 16:40:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>oaby</t>
+          <t>أبي غلام</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>saudi</t>
+          <t>السعودية</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -980,12 +992,30 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>5581340323</v>
+      </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>سكري (Type I)، اضطراب الغدة الدرقية</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>بنادول 500G</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>سيفالوسبورين، الأسبرين/NSAIDs، الجلوتين (قمح)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>كوفيد</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -998,20 +1028,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-01 12:39:32</t>
+          <t>2025-10-02 16:40:47</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aseel</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>24</v>
+          <t>أسيل المحمادي</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>saudi</t>
+          <t>السعودية</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1020,12 +1052,32 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>05581340323</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>سكري (Type I)، اضطراب الغدة الدرقية</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>بنادول 500G</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>سيفالوسبورين، الأسبرين/NSAIDs، الجلوتين (قمح)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>كوفيد</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -822,16 +822,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-02 15:54:18</t>
+          <t>2025-10-03 22:05:55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>خديجة علي باعثمان</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>24</v>
+          <t>خديجة</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -844,8 +846,10 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>554420060</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0554420060</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1036,10 +1040,8 @@
           <t>أسيل المحمادي</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C12" t="n">
+        <v>22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1052,10 +1054,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>05581340323</t>
-        </is>
+      <c r="G12" t="n">
+        <v>5581340323</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1130,12 +1130,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-02 15:31:24</t>
+          <t>2025-10-03 21:18:01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>خديجة علي باعثمان</t>
+          <t>khadijah</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1156,17 +1156,13 @@
         <v>554420060</v>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>سكري (Type II)، السمنة</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>الفول السوداني/المكسّرات، الجلوتين (قمح)</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>إيبوبروفين (مضاد التهاب)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,65 +461,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>National ID / Iqama</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Blood Type</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Emergency Phone</t>
+          <t>Chronic Conditions</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Chronic Conditions</t>
+          <t>Current Meds</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Current Meds</t>
+          <t>Inferred Conditions</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Allergies</t>
+          <t>Meds Photo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Vaccinations</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Temp (C)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>BP Systolic</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BP Diastolic</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Random Glucose (mg/dL)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Medical Notes</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Record ID</t>
         </is>
@@ -536,26 +506,36 @@
           <t>khadijah</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>saudi</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,26 +548,36 @@
           <t>khadijah</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>saudi</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,26 +590,36 @@
           <t>خديجه</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Saudi</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -632,8 +632,10 @@
           <t>خديجة باعثمان</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>24</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -645,47 +647,29 @@
           <t>١٢٣٤٥</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>السكر ، الضغط</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>السكر ، الضغط</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
           <t>الأدوات ال دوات</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>القمح</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>كل شي</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>38</v>
-      </c>
-      <c r="N5" t="n">
-        <v>190</v>
-      </c>
-      <c r="O5" t="n">
-        <v>23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>dfghb</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,8 +682,10 @@
           <t>khadijah</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>24</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -711,47 +697,29 @@
           <t>123456</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sdfghj</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sdfghj</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
           <t>asertgyhj</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>wertyui</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>wg43qg</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>36</v>
-      </c>
-      <c r="N6" t="n">
-        <v>130</v>
-      </c>
-      <c r="O6" t="n">
-        <v>456</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1234</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>wertgyhujk</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -764,8 +732,10 @@
           <t>خديجة</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>34</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -777,62 +747,44 @@
           <t>1234567890</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ertyhujk</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ertyhujk</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
           <t>dfghjk</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>sdertyujik</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>dfghjkl</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>37</v>
-      </c>
-      <c r="N7" t="n">
-        <v>456</v>
-      </c>
-      <c r="O7" t="n">
-        <v>345</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3456</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>wertyujik</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-03 22:05:55</t>
+          <t>2025-10-04 12:05:25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>خديجة</t>
+          <t>خديجة علي باعثمان</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -845,47 +797,53 @@
           <t>88888</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>554420060.0</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0554420060</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>سكري (Type II)، ضغط دم عالي، ربو</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>سيفالوسبورين، الأسبرين/NSAIDs، اللاكتوز</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>88888</v>
+          <t>20251004120525_WhatsApp_Image_2025-10-04_at_10.36.13.jpeg</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>88888.0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-02 16:40:26</t>
+          <t>2025-10-04 12:05:52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>رائد ابو الحجي</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
+          <t>رائد ابوالحجي</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -897,38 +855,40 @@
           <t>33333</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>5581340323</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>554420060.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>سكري (Type I)، اضطراب الغدة الدرقية</t>
+          <t>أوميبرازول (حموضة/ارتجاع)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>بنادول 500G</t>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>سيفالوسبورين، الأسبرين/NSAIDs، الجلوتين (قمح)</t>
+          <t>20251004120552_WhatsApp_Image_2025-10-04_at_10.36.13.jpeg</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>كوفيد</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>33333</v>
+          <t>33333.0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -942,8 +902,10 @@
           <t>shahinaz</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>24</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -955,26 +917,26 @@
           <t>66666</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>66666</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>66666.0</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-02 16:40:00</t>
+          <t>2025-10-04 12:08:31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -982,8 +944,10 @@
           <t>أبي غلام</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>21</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -995,38 +959,40 @@
           <t>22222</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>5581340323</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0554420060</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>سكري (Type I)، اضطراب الغدة الدرقية</t>
+          <t>أوميبرازول (حموضة/ارتجاع)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>بنادول 500G</t>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>سيفالوسبورين، الأسبرين/NSAIDs، الجلوتين (قمح)</t>
+          <t>20251004120831_WhatsApp_Image_2025-10-04_at_10.36.13.jpeg</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>كوفيد</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>22222</v>
+          <t>22222</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1040,8 +1006,10 @@
           <t>أسيل المحمادي</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>22</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1053,57 +1021,49 @@
           <t>11111</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>5581340323</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5581340323.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>سكري (Type I)، اضطراب الغدة الدرقية</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>سكري (Type I)، اضطراب الغدة الدرقية</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
           <t>بنادول 500G</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>سيفالوسبورين، الأسبرين/NSAIDs، الجلوتين (قمح)</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>كوفيد</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
-        <v>11111</v>
+          <t>11111.0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-01 12:39:49</t>
+          <t>2025-10-04 12:07:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nagm</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>24</v>
+          <t>محمد نجم</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>saudi</t>
+          <t>مصر</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1111,20 +1071,40 @@
           <t>44444</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
-        <v>44444</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>550496989.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>O+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>باراسيتامول (مسكن/خافض حرارة)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ارتفاع ضغط الدم، سكري ||، جلطة قلبيه</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>20251004120724_WhatsApp_Image_2025-10-04_at_10.36.13.jpeg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>44444.0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1138,8 +1118,10 @@
           <t>khadijah</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>24</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1151,25 +1133,25 @@
           <t>55555</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>554420060</v>
-      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>554420060.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>إيبوبروفين (مضاد التهاب)</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
